--- a/reimbursement/src/main/resources/TestData/TestData.xlsx
+++ b/reimbursement/src/main/resources/TestData/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ReimbUnits" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">AutoUnit1</t>
   </si>
   <si>
-    <t xml:space="preserve">Create Custom flow</t>
+    <t xml:space="preserve">Create Custom flow1</t>
   </si>
   <si>
     <t xml:space="preserve">AutoUnit1_Description</t>
@@ -60,6 +60,9 @@
     <t xml:space="preserve">AutoUnit2</t>
   </si>
   <si>
+    <t xml:space="preserve">Create Custom flow2</t>
+  </si>
+  <si>
     <t xml:space="preserve">AutoUnit2_Description</t>
   </si>
   <si>
@@ -72,24 +75,21 @@
     <t xml:space="preserve">GrpCompany</t>
   </si>
   <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ApprovalFlow</t>
-  </si>
-  <si>
     <t xml:space="preserve">Currency</t>
   </si>
   <si>
-    <t xml:space="preserve">Body</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reimb Form auto1</t>
   </si>
   <si>
     <t xml:space="preserve">Wild1</t>
   </si>
   <si>
+    <t xml:space="preserve">//variables to be associated with enums/fixed values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//can be passed thru test data or config.ini file : Grp company: take mongo Id</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reimb Form auto2</t>
   </si>
   <si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">values</t>
   </si>
   <si>
     <t xml:space="preserve">uppercappu</t>
@@ -144,6 +141,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -166,6 +164,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -179,6 +178,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -186,12 +186,14 @@
       <color rgb="FF1C1C1C"/>
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF1C1C1C"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -348,15 +350,15 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.82"/>
   </cols>
@@ -406,10 +408,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -439,11 +441,11 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.53"/>
@@ -453,35 +455,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="E1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -499,7 +500,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -512,19 +513,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,44 +556,40 @@
       <c r="I1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="D2" s="0" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>35</v>
+      <c r="I2" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/reimbursement/src/main/resources/TestData/TestData.xlsx
+++ b/reimbursement/src/main/resources/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -48,22 +48,10 @@
     <t xml:space="preserve">AutoUnit1</t>
   </si>
   <si>
-    <t xml:space="preserve">Create Custom flow1</t>
+    <t xml:space="preserve">Create ReimbUnit1</t>
   </si>
   <si>
     <t xml:space="preserve">AutoUnit1_Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reimb Unit Form auto2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoUnit2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Custom flow2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoUnit2_Description</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -348,13 +336,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.53"/>
@@ -398,30 +386,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4"/>
+      <c r="A4" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -445,7 +416,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.53"/>
@@ -455,46 +426,46 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -519,7 +490,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.35"/>
@@ -530,36 +501,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" s="7" t="n">
         <v>2</v>
@@ -583,7 +554,7 @@
         <v>80</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/reimbursement/src/main/resources/TestData/TestData.xlsx
+++ b/reimbursement/src/main/resources/TestData/TestData.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ReimbUnits" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="ReimbForm" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="ReimbFormBody" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ReimbLimitsBody" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Expenses" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -60,61 +61,64 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
-    <t xml:space="preserve">GrpCompany</t>
+    <t xml:space="preserve">GroupCompany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReimbursementLimitsBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimb Form auto1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">band_grade_desig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uppercappu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uppercap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nooftimespermonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxamtpermonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dayspostexpense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autoapprovallimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autocalculate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
   </si>
   <si>
     <t xml:space="preserve">Currency</t>
   </si>
   <si>
-    <t xml:space="preserve">Reimb Form auto1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wild1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//variables to be associated with enums/fixed values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//can be passed thru test data or config.ini file : Grp company: take mongo Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reimb Form auto2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wild11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">band_grade_desig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uppercappu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uppercap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nooftimespermonth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxamtpermonth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dayspostexpense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autoapprovallimit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autocalculate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESG,BAND, GRADE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
+    <t xml:space="preserve">Amount</t>
   </si>
 </sst>
 </file>
@@ -124,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -174,13 +178,6 @@
       <color rgb="FF1C1C1C"/>
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1C1C1C"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -226,7 +223,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -252,10 +249,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -338,11 +331,11 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A1:E1 A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.53"/>
@@ -410,63 +403,62 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A1:E1 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="28.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="5" width="28.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="5" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>19</v>
-      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -487,10 +479,10 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="A1:E1 A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.35"/>
@@ -501,42 +493,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="7" t="n">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>100</v>
+        <v>890</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>5</v>
@@ -554,7 +546,48 @@
         <v>80</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>30</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/reimbursement/src/main/resources/TestData/TestData.xlsx
+++ b/reimbursement/src/main/resources/TestData/TestData.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="ReimbUnits" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ReimbForm" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="ReimbLimitsBody" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Expenses" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ReimbForm" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ReimbUnits" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Expenses" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ReimbLimitsBody" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GroupCompany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applicable_To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReimbursementLimitsBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimb_AutoForm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created through automation script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2</t>
+  </si>
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -43,9 +73,6 @@
     <t xml:space="preserve">Reimb Unit Form auto1</t>
   </si>
   <si>
-    <t xml:space="preserve">created through automation script</t>
-  </si>
-  <si>
     <t xml:space="preserve">AutoUnit1</t>
   </si>
   <si>
@@ -55,70 +82,61 @@
     <t xml:space="preserve">AutoUnit1_Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GroupCompany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReimbursementLimitsBody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reimb Form auto1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wild1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">band_grade_desig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uppercappu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uppercap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nooftimespermonth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxamtpermonth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dayspostexpense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autoapprovallimit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autocalculate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL_0</t>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FormType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimb Expense auto1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-11-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUPEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval DLo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UpperCapPerUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UpperCap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoOfTimesPerMonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxAmountPerPerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DaysPostExpense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoApprovalLimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoCalculate</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount</t>
+    <t xml:space="preserve">no</t>
   </si>
 </sst>
 </file>
@@ -223,13 +241,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -329,29 +351,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A1:E1 A8"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="D1 D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.39"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -368,29 +389,20 @@
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -403,67 +415,68 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A1:E1 D2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D1 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="28.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="5" width="28.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="5" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.82"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -476,77 +489,62 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="A1:E1 A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>890</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>26</v>
+      <c r="G2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -565,29 +563,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>890</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>880</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/reimbursement/src/main/resources/TestData/TestData.xlsx
+++ b/reimbursement/src/main/resources/TestData/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ReimbForm" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -31,25 +31,31 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
-    <t xml:space="preserve">GroupCompany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applicable_To</t>
+    <t xml:space="preserve">IsGroupCompany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CurrencyType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApplicableTo</t>
   </si>
   <si>
     <t xml:space="preserve">ReimbursementLimitsBody</t>
   </si>
   <si>
-    <t xml:space="preserve">Reimb_AutoForm1</t>
+    <t xml:space="preserve">Reimb_AutoForm2</t>
   </si>
   <si>
     <t xml:space="preserve">created through automation script</t>
   </si>
   <si>
-    <t xml:space="preserve">Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL_0</t>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUPEE,DOLLAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPT_,LOC_,TYP_,BAND_,GRADE_</t>
   </si>
   <si>
     <t xml:space="preserve">1,2</t>
@@ -91,15 +97,12 @@
     <t xml:space="preserve">Currency</t>
   </si>
   <si>
-    <t xml:space="preserve">FormType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amount</t>
   </si>
   <si>
+    <t xml:space="preserve">ItemName</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reimb Expense auto1</t>
   </si>
   <si>
@@ -109,7 +112,10 @@
     <t xml:space="preserve">RUPEE</t>
   </si>
   <si>
-    <t xml:space="preserve">Approval DLo</t>
+    <t xml:space="preserve">Band_Grade_Designation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
   </si>
   <si>
     <t xml:space="preserve">UpperCapPerUnit</t>
@@ -133,10 +139,16 @@
     <t xml:space="preserve">AutoCalculate</t>
   </si>
   <si>
+    <t xml:space="preserve">BAND_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOC</t>
+  </si>
+  <si>
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
+    <t xml:space="preserve">GRADE_</t>
   </si>
 </sst>
 </file>
@@ -146,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -197,6 +209,11 @@
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,7 +258,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -270,7 +287,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -351,18 +380,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="D1 D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="33.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,22 +410,28 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -418,10 +453,10 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D1 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.53"/>
@@ -432,36 +467,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,62 +524,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>1</v>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>6</v>
+      <c r="D2" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -563,81 +587,99 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1 A2"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="H1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="n">
         <v>890</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="D2" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="E2" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="F2" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="G2" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="H2" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>36</v>
+      <c r="I2" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>880</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>890</v>
+      </c>
+      <c r="D3" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="E3" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="F3" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="G3" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="H3" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>37</v>
+      <c r="I3" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
